--- a/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Plg-F2r.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Plg-F2r.xlsx
@@ -546,34 +546,34 @@
         <v>1</v>
       </c>
       <c r="K2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M2">
-        <v>8.038446</v>
+        <v>4.536281</v>
       </c>
       <c r="N2">
-        <v>24.115338</v>
+        <v>13.608843</v>
       </c>
       <c r="O2">
-        <v>0.1223314651384763</v>
+        <v>0.07292094190424039</v>
       </c>
       <c r="P2">
-        <v>0.1223314651384763</v>
+        <v>0.07292094190424041</v>
       </c>
       <c r="Q2">
-        <v>0.142794954744</v>
+        <v>0.08058249568399999</v>
       </c>
       <c r="R2">
-        <v>1.285154592696</v>
+        <v>0.725242461156</v>
       </c>
       <c r="S2">
-        <v>0.1223314651384763</v>
+        <v>0.07292094190424039</v>
       </c>
       <c r="T2">
-        <v>0.1223314651384763</v>
+        <v>0.07292094190424041</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -620,10 +620,10 @@
         <v>133.523708</v>
       </c>
       <c r="O3">
-        <v>0.6773345175739229</v>
+        <v>0.7154667412877611</v>
       </c>
       <c r="P3">
-        <v>0.6773345175739229</v>
+        <v>0.7154667412877612</v>
       </c>
       <c r="Q3">
         <v>0.7906383829706666</v>
@@ -632,10 +632,10 @@
         <v>7.115745446736</v>
       </c>
       <c r="S3">
-        <v>0.6773345175739229</v>
+        <v>0.7154667412877611</v>
       </c>
       <c r="T3">
-        <v>0.6773345175739229</v>
+        <v>0.7154667412877612</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -682,22 +682,22 @@
         <v>39.492068</v>
       </c>
       <c r="O4">
-        <v>0.2003340172876008</v>
+        <v>0.2116123168079984</v>
       </c>
       <c r="P4">
-        <v>0.2003340172876008</v>
+        <v>0.2116123168079984</v>
       </c>
       <c r="Q4">
-        <v>0.2338456986506666</v>
+        <v>0.2338456986506667</v>
       </c>
       <c r="R4">
         <v>2.104611287856</v>
       </c>
       <c r="S4">
-        <v>0.2003340172876008</v>
+        <v>0.2116123168079984</v>
       </c>
       <c r="T4">
-        <v>0.2003340172876008</v>
+        <v>0.2116123168079984</v>
       </c>
     </row>
   </sheetData>
